--- a/biology/Neurosciences/Jean-Philippe_Lachaux/Jean-Philippe_Lachaux.xlsx
+++ b/biology/Neurosciences/Jean-Philippe_Lachaux/Jean-Philippe_Lachaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Philippe Lachaux est directeur de recherche à l'Institut national de la santé et de la recherche médicale (INSERM)[1],[2] et travaille en tant que chercheur en neurosciences au Centre de Recherche en Neurosciences de Lyon. Il se consacre à l'étude des mécanismes neuronaux associés à l'attention[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Philippe Lachaux est directeur de recherche à l'Institut national de la santé et de la recherche médicale (INSERM), et travaille en tant que chercheur en neurosciences au Centre de Recherche en Neurosciences de Lyon. Il se consacre à l'étude des mécanismes neuronaux associés à l'attention,.
 </t>
         </is>
       </c>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière professionnelle
-Après sa sortie de l'École polytechnique, Jean-Philippe Lachaux effectue un Diplôme d'études approfondies (DEA) en sciences cognitives dans le but de comprendre les mécanismes de l'attention. En 1997, Il réalise une thèse en sciences biologiques et fondamentales intitulée Synchronisation neuronale et activité cognitive chez l'homme : un rôle possible pour l'attention, sous la direction de Fransisco Varela[5]. En 2000, il devient chargé de recherche au CNRS et poursuit ses travaux dès septembre 2003 dans un laboratoire de l'INSERM à Lyon[6], où il devient directeur de recherche. Il reçoit une médaille de bronze du CNRS en 2005 pour l'avancée de ses recherches sur les facultés cognitives et le développement d'une technique nouvelle pour localiser une activité cognitive dans le cerveau humain, et mesurer cette activité dans le temps, simultanément[7].
-Jean-Philippe Lachaux définit l'attention comme le mécanisme permettant de pallier la capacité limitée du cerveau humain à traiter un grand nombre d'informations simultanément[6]. Il tente de simplifier les mécanismes de l'attention afin de les expliquer aux enfants et de les aider à comprendre comment celle-ci fonctionne[6]. Il s'intéresse aussi particulièrement à l'addiction aux smartphones à la gestion du temps dans la vie quotidienne[8].
-Parution d'ouvrages
-Ses travaux innovants sur l'attention l'amènent à faire paraître en 2011 son premier ouvrage, Le Cerveau Attentif, maîtrise et lâcher-prise, aux éditions Odile Jacob, dans lequel il apprend au lecteur à "faire attention à son attention" dans son quotidien[9]. C'est en 2016 que paraît sa bande dessinée à succès Les Petites Bulles de l'Attention[10],[11], qui tente d'expliquer comment faire face aux problèmes de concentration, avec l'image "rester concentré, c'est comme marcher sur une poutre sans tomber"[10].
-Fondation du programme ATOLE
-Pour apprendre aux enfants à être plus attentif, il fonde, en 2020, avec des professionnels de l'enfance le programme ATOLE[8], en référence aux termes "attention" et "école". Ce programme à destination des élèves de l'école primaire jusqu'au début du collège vise à la découverte et à l'apprentissage de l'attention dans le milieu scolaire[11],[12] et est déjà mis en place dans des centaines de classes[13]. Il accompagne ce programme d'un livre intitulé L'Attention ça s'apprend, à la découverte du programme ATOLE, paru aux éditions MDI en juillet 2020[14].
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après sa sortie de l'École polytechnique, Jean-Philippe Lachaux effectue un Diplôme d'études approfondies (DEA) en sciences cognitives dans le but de comprendre les mécanismes de l'attention. En 1997, Il réalise une thèse en sciences biologiques et fondamentales intitulée Synchronisation neuronale et activité cognitive chez l'homme : un rôle possible pour l'attention, sous la direction de Fransisco Varela. En 2000, il devient chargé de recherche au CNRS et poursuit ses travaux dès septembre 2003 dans un laboratoire de l'INSERM à Lyon, où il devient directeur de recherche. Il reçoit une médaille de bronze du CNRS en 2005 pour l'avancée de ses recherches sur les facultés cognitives et le développement d'une technique nouvelle pour localiser une activité cognitive dans le cerveau humain, et mesurer cette activité dans le temps, simultanément.
+Jean-Philippe Lachaux définit l'attention comme le mécanisme permettant de pallier la capacité limitée du cerveau humain à traiter un grand nombre d'informations simultanément. Il tente de simplifier les mécanismes de l'attention afin de les expliquer aux enfants et de les aider à comprendre comment celle-ci fonctionne. Il s'intéresse aussi particulièrement à l'addiction aux smartphones à la gestion du temps dans la vie quotidienne.
 </t>
         </is>
       </c>
@@ -545,21 +558,134 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parution d'ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux innovants sur l'attention l'amènent à faire paraître en 2011 son premier ouvrage, Le Cerveau Attentif, maîtrise et lâcher-prise, aux éditions Odile Jacob, dans lequel il apprend au lecteur à "faire attention à son attention" dans son quotidien. C'est en 2016 que paraît sa bande dessinée à succès Les Petites Bulles de l'Attention qui tente d'expliquer comment faire face aux problèmes de concentration, avec l'image "rester concentré, c'est comme marcher sur une poutre sans tomber".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Lachaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Lachaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fondation du programme ATOLE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour apprendre aux enfants à être plus attentif, il fonde, en 2020, avec des professionnels de l'enfance le programme ATOLE, en référence aux termes "attention" et "école". Ce programme à destination des élèves de l'école primaire jusqu'au début du collège vise à la découverte et à l'apprentissage de l'attention dans le milieu scolaire, et est déjà mis en place dans des centaines de classes. Il accompagne ce programme d'un livre intitulé L'Attention ça s'apprend, à la découverte du programme ATOLE, paru aux éditions MDI en juillet 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Lachaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Lachaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrages
-Le Cerveau Attentif, Contrôle, maîtrise et lâcher-prise, Odile Jacob, 2011
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Cerveau Attentif, Contrôle, maîtrise et lâcher-prise, Odile Jacob, 2011
 Le Cerveau Funambule, Comprendre et apprivoiser son attention grâce aux Neurosciences, Odile Jacob, 2015
 Les Petites Bulles de l’Attention, Se concentrer dans un monde de distractions, Odile Jacob, 2016
-La magie de la concentration, un parcours ludique et initiatique, Odile Jacob, 2020[15]
-Contribution à des ouvrages
-Préface, dans La Méditation laïque en classe, Dunod, 2013[16]
+La magie de la concentration, un parcours ludique et initiatique, Odile Jacob, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Lachaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Lachaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contribution à des ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Préface, dans La Méditation laïque en classe, Dunod, 2013
 Pour une maîtrise de l’attention, dans La Psychologie d’aujourd’hui, Éditions Sciences Humaines, 2017
 Chapitre 5, L’économie cérébrale de l’attention, dans L’économie de l’attention, La Découverte, 2014
-Chapitre 8. Langage intérieur, dans Traité de neurolinguistique, De Boeck Supérieur, 2016[17]</t>
+Chapitre 8. Langage intérieur, dans Traité de neurolinguistique, De Boeck Supérieur, 2016</t>
         </is>
       </c>
     </row>
